--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Properties</t>
   </si>
@@ -36,36 +36,12 @@
     <t>PropertiesID</t>
   </si>
   <si>
-    <t>PictureId</t>
-  </si>
-  <si>
-    <t>PropertyId</t>
-  </si>
-  <si>
-    <t>PropertyPictures</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
-    <t>CityId</t>
-  </si>
-  <si>
-    <t>CityName</t>
-  </si>
-  <si>
-    <t>HouseType</t>
-  </si>
-  <si>
-    <t>TypeId</t>
-  </si>
-  <si>
     <t>Area (SQ)</t>
   </si>
   <si>
@@ -90,10 +66,82 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>ImagePath</t>
-  </si>
-  <si>
-    <t>Sale</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>pswd</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>ImagePath1</t>
+  </si>
+  <si>
+    <t>ImagePath2</t>
+  </si>
+  <si>
+    <t>ImagePath3</t>
+  </si>
+  <si>
+    <t>ImagePath4</t>
+  </si>
+  <si>
+    <t>ImagePath5</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Burnaby</t>
+  </si>
+  <si>
+    <t>West Vancouver</t>
+  </si>
+  <si>
+    <t>Vancouver West</t>
+  </si>
+  <si>
+    <t>New Westminster</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Condo</t>
+  </si>
+  <si>
+    <t>Townhouse</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>(admin)</t>
   </si>
 </sst>
 </file>
@@ -125,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,14 +220,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,203 +570,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L16"/>
+  <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="31.5">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
+    <row r="3" spans="1:9" ht="31.5">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" t="s">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" t="s">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Properties</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>(admin)</t>
+  </si>
+  <si>
+    <t>News</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,6 +821,9 @@
       </c>
       <c r="C28" t="s">
         <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Properties</t>
   </si>
@@ -145,13 +145,43 @@
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Office Address</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Short Bio</t>
+  </si>
+  <si>
+    <t>TEAM TABLE (HR)</t>
+  </si>
+  <si>
+    <t>*is there a phone data type?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +205,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,9 +279,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -253,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,27 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,24 +408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +595,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,6 +732,10 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
@@ -729,6 +744,12 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
+      <c r="H15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
@@ -737,40 +758,73 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -778,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -790,7 +844,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,7 +858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -815,7 +869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -826,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="E29" t="s">
         <v>40</v>
       </c>
@@ -835,6 +889,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H14:I14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -842,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -856,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Properties</t>
   </si>
@@ -174,7 +174,10 @@
     <t>TEAM TABLE (HR)</t>
   </si>
   <si>
-    <t>*is there a phone data type?</t>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -254,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J29"/>
+  <dimension ref="A3:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,14 +770,14 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
+      <c r="H16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -773,13 +785,13 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -787,16 +799,13 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -804,13 +813,13 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -818,21 +827,27 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -844,7 +859,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,7 +873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -869,7 +884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -880,7 +895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9">
       <c r="E29" t="s">
         <v>40</v>
       </c>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Properties</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Agent Name</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>Office Address</t>
   </si>
   <si>
@@ -178,12 +175,75 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>CityID</t>
+  </si>
+  <si>
+    <t>typeID</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>propertyID</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tinyInt</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Shaun's proposed Sales page &amp; this can be use for SEARCH page too</t>
+  </si>
+  <si>
+    <t>propertyNum</t>
+  </si>
+  <si>
+    <t>streetNum</t>
+  </si>
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>varChar</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>hrID</t>
+  </si>
+  <si>
+    <t>departID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -217,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -263,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,11 +354,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,6 +455,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,6 +490,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,317 +666,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="31.5">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1">
-      <c r="B5" s="3" t="s">
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="K15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
         <v>52</v>
       </c>
-      <c r="I16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="4:12">
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="H29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="E29" t="s">
+    <row r="30" spans="4:12">
+      <c r="H30" t="s">
         <v>40</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I30" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -914,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -928,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Properties</t>
   </si>
@@ -201,9 +201,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>tinyInt</t>
   </si>
   <si>
@@ -213,15 +210,6 @@
     <t>Shaun's proposed Sales page &amp; this can be use for SEARCH page too</t>
   </si>
   <si>
-    <t>propertyNum</t>
-  </si>
-  <si>
-    <t>streetNum</t>
-  </si>
-  <si>
-    <t>streetName</t>
-  </si>
-  <si>
     <t>postalCode</t>
   </si>
   <si>
@@ -231,13 +219,16 @@
     <t>price</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>hrID</t>
   </si>
   <si>
     <t>departID</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>sqFt</t>
   </si>
 </sst>
 </file>
@@ -357,11 +348,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +661,7 @@
   <dimension ref="A3:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,14 +680,14 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -750,10 +741,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -770,10 +761,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -790,10 +781,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>53</v>
@@ -813,10 +804,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -833,10 +824,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
@@ -856,10 +847,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -873,10 +864,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -890,10 +881,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -903,30 +894,18 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
@@ -948,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
         <v>56</v>
@@ -979,7 +958,7 @@
         <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="4:12">
@@ -1049,7 +1028,7 @@
         <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
         <v>56</v>
